--- a/mf-intelligence/data/processed/quant/quant_Teck_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Teck_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>9.991374</v>
+      </c>
+      <c r="E2" t="n">
         <v>9.640183</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.16639</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.4737930000000006</v>
+        <v>0.351191</v>
       </c>
       <c r="H2" t="n">
-        <v>9.640183</v>
+        <v>0.8249840000000006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE619B01017</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Newgen Software Technologies Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.317011000000001</v>
+        <v>9.337402000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>8.655332</v>
+        <v>7.453394</v>
       </c>
       <c r="F3" t="n">
-        <v>9.231755</v>
+        <v>8.618147</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6616790000000012</v>
+        <v>1.884008000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08525600000000111</v>
+        <v>0.7192550000000004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE306R01017</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HCL Technologies Limited</t>
+          <t>Intellect Design Arena Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9.011687999999999</v>
+        <v>7.393204</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.090076</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7.578916</v>
       </c>
       <c r="G4" t="n">
-        <v>9.011687999999999</v>
+        <v>0.3031280000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>9.011687999999999</v>
+        <v>-0.1857120000000005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE891D01026</t>
+          <t>INE0U4701011</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Redington Limited</t>
+          <t>Digitide Solutions Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.099281</v>
+        <v>7.146973</v>
       </c>
       <c r="E5" t="n">
-        <v>7.799295</v>
+        <v>7.42722</v>
       </c>
       <c r="F5" t="n">
-        <v>6.77886</v>
+        <v>7.46193</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2999859999999996</v>
+        <v>-0.2802470000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1.320421</v>
+        <v>-0.3149569999999997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE619B01017</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Newgen Software Technologies Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.453394</v>
+        <v>7.110316</v>
       </c>
       <c r="E6" t="n">
-        <v>8.618147</v>
+        <v>9.317011000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>5.173243</v>
+        <v>8.655332</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.164753</v>
+        <v>-2.206695000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2.280151</v>
+        <v>-1.545016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE0U4701011</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Digitide Solutions Limited</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.42722</v>
+        <v>6.212695</v>
       </c>
       <c r="E7" t="n">
-        <v>7.46193</v>
+        <v>6.214914</v>
       </c>
       <c r="F7" t="n">
-        <v>8.006432</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03470999999999957</v>
+        <v>-0.002219000000000193</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5792120000000001</v>
+        <v>6.212695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE306R01017</t>
+          <t>INE881D01027</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Intellect Design Arena Limited</t>
+          <t>Oracle Financial Services Software Ltd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7.090076</v>
+        <v>5.07428</v>
       </c>
       <c r="E8" t="n">
-        <v>7.578916</v>
+        <v>4.535991</v>
       </c>
       <c r="F8" t="n">
-        <v>6.017816</v>
+        <v>4.463247</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4888400000000006</v>
+        <v>0.5382889999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1.07226</v>
+        <v>0.6110329999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>Wipro Ltd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.214914</v>
+        <v>4.658781</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.672267</v>
       </c>
       <c r="F9" t="n">
-        <v>6.113432</v>
+        <v>4.131502</v>
       </c>
       <c r="G9" t="n">
-        <v>6.214914</v>
+        <v>-0.01348599999999944</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1014819999999999</v>
+        <v>0.5272790000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE075A01022</t>
+          <t>INE262H01021</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wipro Ltd</t>
+          <t>Persistent Systems Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.672267</v>
+        <v>3.990566</v>
       </c>
       <c r="E10" t="n">
-        <v>4.131502</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.836748</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5407649999999995</v>
+        <v>3.990566</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8355189999999997</v>
+        <v>3.990566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE881D01027</t>
+          <t>INE269A01021</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oracle Financial Services Software Ltd</t>
+          <t>Sonata Software Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.535991</v>
+        <v>3.136934</v>
       </c>
       <c r="E11" t="n">
-        <v>4.463247</v>
+        <v>3.210402</v>
       </c>
       <c r="F11" t="n">
-        <v>4.513687</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07274400000000014</v>
+        <v>-0.07346800000000009</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0223040000000001</v>
+        <v>3.136934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE269A01021</t>
+          <t>INE009A01021</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sonata Software Limited</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.210402</v>
+        <v>2.922662</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -821,21 +821,21 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.210402</v>
+        <v>2.922662</v>
       </c>
       <c r="H12" t="n">
-        <v>3.210402</v>
+        <v>2.922662</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE00H001014</t>
+          <t>INE670A01012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SWIGGY LIMITED</t>
+          <t>Tata Elxsi Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.814841</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.704044</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.814841</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.704044</v>
+        <v>2.814841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE231F01020</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sasken Technologies Limited</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.167371</v>
       </c>
       <c r="E14" t="n">
-        <v>1.952715</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.445992</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.952715</v>
+        <v>1.167371</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.445992</v>
+        <v>1.167371</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE411H01032</t>
+          <t>INE424H01027</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R Systems International Limited</t>
+          <t>SUN TV Network Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -911,27 +911,27 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.570959</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4.268354</v>
+        <v>9.603835999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.570959</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.268354</v>
+        <v>-9.603835999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE424H01027</t>
+          <t>INE411H01032</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SUN TV Network Limited</t>
+          <t>R Systems International Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -943,27 +943,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>9.603835999999999</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.349346000000001</v>
+        <v>0.570959</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.603835999999999</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.349346000000001</v>
+        <v>-0.570959</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE548A01028</t>
+          <t>INE231F01020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HFCL Limited</t>
+          <t>Sasken Technologies Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -978,13 +978,77 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4.676026</v>
+        <v>1.952715</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.676026</v>
+        <v>-1.952715</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>INE860A01027</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HCL Technologies Limited</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.011687999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-9.011687999999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>INE891D01026</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Redington Limited</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.099281</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7.799295</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-8.099281</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-7.799295</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Teck_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Teck_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.991374</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.640183</v>
       </c>
-      <c r="F2" t="n">
-        <v>9.16639</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.351191</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.8249840000000006</v>
+      <c r="I2" t="n">
+        <v>9.991374</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.337402000000001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7.453394</v>
       </c>
-      <c r="F3" t="n">
-        <v>8.618147</v>
-      </c>
       <c r="G3" t="n">
+        <v>5.173243</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.884008000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.7192550000000004</v>
+      <c r="I3" t="n">
+        <v>4.164159000000001</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>7.393204</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.090076</v>
       </c>
-      <c r="F4" t="n">
-        <v>7.578916</v>
-      </c>
       <c r="G4" t="n">
+        <v>6.017816</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3031280000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>-0.1857120000000005</v>
+      <c r="I4" t="n">
+        <v>1.375388</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>7.146973</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.42722</v>
       </c>
-      <c r="F5" t="n">
-        <v>7.46193</v>
-      </c>
       <c r="G5" t="n">
+        <v>8.006432</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.2802470000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>-0.3149569999999997</v>
+      <c r="I5" t="n">
+        <v>-0.8594590000000002</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>7.110316</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>9.317011000000001</v>
       </c>
-      <c r="F6" t="n">
-        <v>8.655332</v>
-      </c>
       <c r="G6" t="n">
+        <v>9.231755</v>
+      </c>
+      <c r="H6" t="n">
         <v>-2.206695000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>-1.545016</v>
+      <c r="I6" t="n">
+        <v>-2.121439</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>6.212695</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.214914</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
+        <v>6.113432</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.002219000000000193</v>
       </c>
-      <c r="H7" t="n">
-        <v>6.212695</v>
+      <c r="I7" t="n">
+        <v>0.09926299999999966</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.07428</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.535991</v>
       </c>
-      <c r="F8" t="n">
-        <v>4.463247</v>
-      </c>
       <c r="G8" t="n">
+        <v>4.513687</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5382889999999998</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.6110329999999999</v>
+      <c r="I8" t="n">
+        <v>0.5605929999999999</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>4.658781</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.672267</v>
       </c>
-      <c r="F9" t="n">
-        <v>4.131502</v>
-      </c>
       <c r="G9" t="n">
+        <v>3.836748</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.01348599999999944</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.5272790000000001</v>
+      <c r="I9" t="n">
+        <v>0.8220330000000002</v>
       </c>
     </row>
     <row r="10">
@@ -747,21 +792,26 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.990566</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.990566</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>3.990566</v>
       </c>
+      <c r="I10" t="n">
+        <v>3.990566</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -779,19 +829,24 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>3.136934</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.210402</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>-0.07346800000000009</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>3.136934</v>
       </c>
     </row>
@@ -811,21 +866,26 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.922662</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.922662</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>2.922662</v>
       </c>
+      <c r="I12" t="n">
+        <v>2.922662</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -843,21 +903,26 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.814841</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.814841</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>2.814841</v>
       </c>
+      <c r="I13" t="n">
+        <v>2.814841</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,21 +940,26 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.167371</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.167371</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1.167371</v>
       </c>
+      <c r="I14" t="n">
+        <v>1.167371</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -907,31 +977,36 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>9.603835999999999</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>9.349346000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>-9.603835999999999</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-9.349346000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE411H01032</t>
+          <t>INE00H001014</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R Systems International Limited</t>
+          <t>SWIGGY LIMITED</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,31 +1014,36 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.570959</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.704044</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.570959</v>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.704044</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE231F01020</t>
+          <t>INE548A01028</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sasken Technologies Limited</t>
+          <t>HFCL Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,31 +1051,36 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.952715</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4.676026</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.952715</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4.676026</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE411H01032</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HCL Technologies Limited</t>
+          <t>R Systems International Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,52 +1088,136 @@
           <t>quant Teck Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>9.011687999999999</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-9.011687999999999</v>
+        <v>4.268354</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-4.268354</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>INE231F01020</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sasken Technologies Limited</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.445992</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.445992</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>INE860A01027</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HCL Technologies Limited</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.011687999999999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-9.011687999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>INE891D01026</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Redington Limited</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>quant Teck Fund</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>8.099281</v>
       </c>
-      <c r="F19" t="n">
-        <v>7.799295</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="G21" t="n">
+        <v>6.77886</v>
+      </c>
+      <c r="H21" t="n">
         <v>-8.099281</v>
       </c>
-      <c r="H19" t="n">
-        <v>-7.799295</v>
+      <c r="I21" t="n">
+        <v>-6.77886</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Teck_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Teck_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.991374</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.640183</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.351191</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>9.991374</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.337402000000001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>7.453394</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>5.173243</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1.884008000000001</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>4.164159000000001</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.393204</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7.090076</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6.017816</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.3031280000000001</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1.375388</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.146973</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.42722</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>8.006432</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.2802470000000001</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-0.8594590000000002</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.110316</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>9.317011000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>9.231755</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-2.206695000000001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-2.121439</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.212695</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6.214914</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>6.113432</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-0.002219000000000193</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.09926299999999966</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.07428</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.535991</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>4.513687</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.5382889999999998</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.5605929999999999</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.658781</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.672267</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3.836748</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>-0.01348599999999944</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.8220330000000002</v>
       </c>
     </row>
@@ -789,29 +834,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.990566</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.990566</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>3.990566</v>
       </c>
+      <c r="J10" t="n">
+        <v>3.990566</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.136934</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.210402</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>-0.07346800000000009</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>3.136934</v>
       </c>
     </row>
@@ -863,29 +918,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.922662</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.922662</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>2.922662</v>
       </c>
+      <c r="J12" t="n">
+        <v>2.922662</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -900,29 +960,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.814841</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.814841</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>2.814841</v>
       </c>
+      <c r="J13" t="n">
+        <v>2.814841</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -937,29 +1002,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.167371</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.167371</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1.167371</v>
       </c>
+      <c r="J14" t="n">
+        <v>1.167371</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>9.349346000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>-9.349346000000001</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.704044</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>-2.704044</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>4.676026</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>-4.676026</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.268354</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>-4.268354</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.445992</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>-3.445992</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>9.011687999999999</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>-9.011687999999999</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Teck Fund</t>
+          <t>Commercial Services &amp; Supplies</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Teck Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>8.099281</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>6.77886</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-8.099281</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-6.77886</v>
       </c>
     </row>
